--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:24:06+00:00</t>
+    <t>2025-07-30T08:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:12:57+00:00</t>
+    <t>2025-07-30T08:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:37:32+00:00</t>
+    <t>2025-07-30T16:41:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:41:01+00:00</t>
+    <t>2025-07-30T16:51:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:51:38+00:00</t>
+    <t>2025-07-30T16:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:53:20+00:00</t>
+    <t>2025-07-30T16:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:54:54+00:00</t>
+    <t>2025-07-31T08:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
+++ b/main/ig/StructureDefinition-tddui-Encounter-sejour.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:12:23+00:00</t>
+    <t>2025-07-31T08:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
